--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ccl11-Ccr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ccl11-Ccr2.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.842606</v>
+        <v>0.8417533333333332</v>
       </c>
       <c r="H2">
-        <v>2.527818</v>
+        <v>2.52526</v>
       </c>
       <c r="I2">
-        <v>0.0108780433452729</v>
+        <v>0.01079423211523897</v>
       </c>
       <c r="J2">
-        <v>0.0108780433452729</v>
+        <v>0.01079423211523897</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>9.506851333333332</v>
+        <v>0.02564166666666666</v>
       </c>
       <c r="N2">
-        <v>28.520554</v>
+        <v>0.07692499999999999</v>
       </c>
       <c r="O2">
-        <v>0.04665929098818478</v>
+        <v>0.0006780701807970013</v>
       </c>
       <c r="P2">
-        <v>0.04665929098818478</v>
+        <v>0.0006780701807970013</v>
       </c>
       <c r="Q2">
-        <v>8.010529974574665</v>
+        <v>0.02158395838888888</v>
       </c>
       <c r="R2">
-        <v>72.094769771172</v>
+        <v>0.1942556255</v>
       </c>
       <c r="S2">
-        <v>0.0005075617898291753</v>
+        <v>7.319246921944885E-06</v>
       </c>
       <c r="T2">
-        <v>0.0005075617898291753</v>
+        <v>7.319246921944883E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.842606</v>
+        <v>0.8417533333333332</v>
       </c>
       <c r="H3">
-        <v>2.527818</v>
+        <v>2.52526</v>
       </c>
       <c r="I3">
-        <v>0.0108780433452729</v>
+        <v>0.01079423211523897</v>
       </c>
       <c r="J3">
-        <v>0.0108780433452729</v>
+        <v>0.01079423211523897</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -617,28 +617,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.01112833333333334</v>
+        <v>0.01112833333333333</v>
       </c>
       <c r="N3">
         <v>0.033385</v>
       </c>
       <c r="O3">
-        <v>5.461746744612847E-05</v>
+        <v>0.0002942784918545062</v>
       </c>
       <c r="P3">
-        <v>5.461746744612847E-05</v>
+        <v>0.0002942784918545062</v>
       </c>
       <c r="Q3">
-        <v>0.009376800436666667</v>
+        <v>0.009367311677777776</v>
       </c>
       <c r="R3">
-        <v>0.08439120393000001</v>
+        <v>0.08430580509999999</v>
       </c>
       <c r="S3">
-        <v>5.941311782880171E-07</v>
+        <v>3.1765103476E-06</v>
       </c>
       <c r="T3">
-        <v>5.941311782880171E-07</v>
+        <v>3.176510347599999E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.842606</v>
+        <v>0.8417533333333332</v>
       </c>
       <c r="H4">
-        <v>2.527818</v>
+        <v>2.52526</v>
       </c>
       <c r="I4">
-        <v>0.0108780433452729</v>
+        <v>0.01079423211523897</v>
       </c>
       <c r="J4">
-        <v>0.0108780433452729</v>
+        <v>0.01079423211523897</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,22 +685,22 @@
         <v>0.104612</v>
       </c>
       <c r="O4">
-        <v>0.0001711440019312383</v>
+        <v>0.0009221225577320236</v>
       </c>
       <c r="P4">
-        <v>0.0001711440019312383</v>
+        <v>0.0009221225577320235</v>
       </c>
       <c r="Q4">
-        <v>0.02938223295733333</v>
+        <v>0.02935249990222222</v>
       </c>
       <c r="R4">
-        <v>0.264440096616</v>
+        <v>0.26417249912</v>
       </c>
       <c r="S4">
-        <v>1.86171187129148E-06</v>
+        <v>9.953604926857308E-06</v>
       </c>
       <c r="T4">
-        <v>1.861711871291479E-06</v>
+        <v>9.953604926857305E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.842606</v>
+        <v>0.8417533333333332</v>
       </c>
       <c r="H5">
-        <v>2.527818</v>
+        <v>2.52526</v>
       </c>
       <c r="I5">
-        <v>0.0108780433452729</v>
+        <v>0.01079423211523897</v>
       </c>
       <c r="J5">
-        <v>0.0108780433452729</v>
+        <v>0.01079423211523897</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>194.1975953333333</v>
+        <v>37.74401233333333</v>
       </c>
       <c r="N5">
-        <v>582.592786</v>
+        <v>113.232037</v>
       </c>
       <c r="O5">
-        <v>0.9531149475424379</v>
+        <v>0.9981055287696164</v>
       </c>
       <c r="P5">
-        <v>0.9531149475424379</v>
+        <v>0.9981055287696164</v>
       </c>
       <c r="Q5">
-        <v>163.6320590134387</v>
+        <v>31.77114819495777</v>
       </c>
       <c r="R5">
-        <v>1472.688531120948</v>
+        <v>285.94033375462</v>
       </c>
       <c r="S5">
-        <v>0.01036802571239415</v>
+        <v>0.01077378275304257</v>
       </c>
       <c r="T5">
-        <v>0.01036802571239415</v>
+        <v>0.01077378275304256</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>69.05064766666668</v>
+        <v>69.05064766666666</v>
       </c>
       <c r="H6">
         <v>207.151943</v>
       </c>
       <c r="I6">
-        <v>0.8914438519749055</v>
+        <v>0.885471656726338</v>
       </c>
       <c r="J6">
-        <v>0.8914438519749055</v>
+        <v>0.8854716567263378</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>9.506851333333332</v>
+        <v>0.02564166666666666</v>
       </c>
       <c r="N6">
-        <v>28.520554</v>
+        <v>0.07692499999999999</v>
       </c>
       <c r="O6">
-        <v>0.04665929098818478</v>
+        <v>0.0006780701807970013</v>
       </c>
       <c r="P6">
-        <v>0.04665929098818478</v>
+        <v>0.0006780701807970013</v>
       </c>
       <c r="Q6">
-        <v>656.4542418373802</v>
+        <v>1.770573690586111</v>
       </c>
       <c r="R6">
-        <v>5908.088176536422</v>
+        <v>15.935163215275</v>
       </c>
       <c r="S6">
-        <v>0.04159413808892543</v>
+        <v>0.0006004119263670483</v>
       </c>
       <c r="T6">
-        <v>0.04159413808892543</v>
+        <v>0.0006004119263670481</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>69.05064766666668</v>
+        <v>69.05064766666666</v>
       </c>
       <c r="H7">
         <v>207.151943</v>
       </c>
       <c r="I7">
-        <v>0.8914438519749055</v>
+        <v>0.885471656726338</v>
       </c>
       <c r="J7">
-        <v>0.8914438519749055</v>
+        <v>0.8854716567263378</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -865,28 +865,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.01112833333333334</v>
+        <v>0.01112833333333333</v>
       </c>
       <c r="N7">
         <v>0.033385</v>
       </c>
       <c r="O7">
-        <v>5.461746744612847E-05</v>
+        <v>0.0002942784918545062</v>
       </c>
       <c r="P7">
-        <v>5.461746744612847E-05</v>
+        <v>0.0002942784918545062</v>
       </c>
       <c r="Q7">
-        <v>0.7684186241172225</v>
+        <v>0.7684186241172221</v>
       </c>
       <c r="R7">
-        <v>6.915767617055002</v>
+        <v>6.915767617054999</v>
       </c>
       <c r="S7">
-        <v>4.868840556529077E-05</v>
+        <v>0.0002605752637213378</v>
       </c>
       <c r="T7">
-        <v>4.868840556529077E-05</v>
+        <v>0.0002605752637213377</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>69.05064766666668</v>
+        <v>69.05064766666666</v>
       </c>
       <c r="H8">
         <v>207.151943</v>
       </c>
       <c r="I8">
-        <v>0.8914438519749055</v>
+        <v>0.885471656726338</v>
       </c>
       <c r="J8">
-        <v>0.8914438519749055</v>
+        <v>0.8854716567263378</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,10 +933,10 @@
         <v>0.104612</v>
       </c>
       <c r="O8">
-        <v>0.0001711440019312383</v>
+        <v>0.0009221225577320236</v>
       </c>
       <c r="P8">
-        <v>0.0001711440019312383</v>
+        <v>0.0009221225577320235</v>
       </c>
       <c r="Q8">
         <v>2.407842117901778</v>
@@ -945,10 +945,10 @@
         <v>21.670579061116</v>
       </c>
       <c r="S8">
-        <v>0.0001525652683239838</v>
+        <v>0.0008165133888997032</v>
       </c>
       <c r="T8">
-        <v>0.0001525652683239837</v>
+        <v>0.0008165133888997029</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>69.05064766666668</v>
+        <v>69.05064766666666</v>
       </c>
       <c r="H9">
         <v>207.151943</v>
       </c>
       <c r="I9">
-        <v>0.8914438519749055</v>
+        <v>0.885471656726338</v>
       </c>
       <c r="J9">
-        <v>0.8914438519749055</v>
+        <v>0.8854716567263378</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>194.1975953333333</v>
+        <v>37.74401233333333</v>
       </c>
       <c r="N9">
-        <v>582.592786</v>
+        <v>113.232037</v>
       </c>
       <c r="O9">
-        <v>0.9531149475424379</v>
+        <v>0.9981055287696164</v>
       </c>
       <c r="P9">
-        <v>0.9531149475424379</v>
+        <v>0.9981055287696164</v>
       </c>
       <c r="Q9">
-        <v>13409.46973307591</v>
+        <v>2606.248497155321</v>
       </c>
       <c r="R9">
-        <v>120685.2275976832</v>
+        <v>23456.23647439789</v>
       </c>
       <c r="S9">
-        <v>0.8496484602120908</v>
+        <v>0.8837941561473499</v>
       </c>
       <c r="T9">
-        <v>0.8496484602120908</v>
+        <v>0.8837941561473497</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.007504</v>
+        <v>7.697976666666666</v>
       </c>
       <c r="H10">
-        <v>18.022512</v>
+        <v>23.09393</v>
       </c>
       <c r="I10">
-        <v>0.07755687582203347</v>
+        <v>0.09871507918910555</v>
       </c>
       <c r="J10">
-        <v>0.07755687582203347</v>
+        <v>0.09871507918910553</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>9.506851333333332</v>
+        <v>0.02564166666666666</v>
       </c>
       <c r="N10">
-        <v>28.520554</v>
+        <v>0.07692499999999999</v>
       </c>
       <c r="O10">
-        <v>0.04665929098818478</v>
+        <v>0.0006780701807970013</v>
       </c>
       <c r="P10">
-        <v>0.04665929098818478</v>
+        <v>0.0006780701807970013</v>
       </c>
       <c r="Q10">
-        <v>57.11244741240532</v>
+        <v>0.1973889516944444</v>
       </c>
       <c r="R10">
-        <v>514.0120267116479</v>
+        <v>1.77650056525</v>
       </c>
       <c r="S10">
-        <v>0.003618748837114772</v>
+        <v>6.69357515931471E-05</v>
       </c>
       <c r="T10">
-        <v>0.003618748837114772</v>
+        <v>6.693575159314709E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.007504</v>
+        <v>7.697976666666666</v>
       </c>
       <c r="H11">
-        <v>18.022512</v>
+        <v>23.09393</v>
       </c>
       <c r="I11">
-        <v>0.07755687582203347</v>
+        <v>0.09871507918910555</v>
       </c>
       <c r="J11">
-        <v>0.07755687582203347</v>
+        <v>0.09871507918910553</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1113,28 +1113,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.01112833333333334</v>
+        <v>0.01112833333333333</v>
       </c>
       <c r="N11">
         <v>0.033385</v>
       </c>
       <c r="O11">
-        <v>5.461746744612847E-05</v>
+        <v>0.0002942784918545062</v>
       </c>
       <c r="P11">
-        <v>5.461746744612847E-05</v>
+        <v>0.0002942784918545062</v>
       </c>
       <c r="Q11">
-        <v>0.06685350701333334</v>
+        <v>0.08566565033888887</v>
       </c>
       <c r="R11">
-        <v>0.6016815631200001</v>
+        <v>0.7709908530499999</v>
       </c>
       <c r="S11">
-        <v>4.235960140433342E-06</v>
+        <v>2.904972462706813E-05</v>
       </c>
       <c r="T11">
-        <v>4.235960140433342E-06</v>
+        <v>2.904972462706813E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.007504</v>
+        <v>7.697976666666666</v>
       </c>
       <c r="H12">
-        <v>18.022512</v>
+        <v>23.09393</v>
       </c>
       <c r="I12">
-        <v>0.07755687582203347</v>
+        <v>0.09871507918910555</v>
       </c>
       <c r="J12">
-        <v>0.07755687582203347</v>
+        <v>0.09871507918910553</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,22 +1181,22 @@
         <v>0.104612</v>
       </c>
       <c r="O12">
-        <v>0.0001711440019312383</v>
+        <v>0.0009221225577320236</v>
       </c>
       <c r="P12">
-        <v>0.0001711440019312383</v>
+        <v>0.0009221225577320235</v>
       </c>
       <c r="Q12">
-        <v>0.2094856694826667</v>
+        <v>0.2684335783511111</v>
       </c>
       <c r="R12">
-        <v>1.885371025344</v>
+        <v>2.41590220516</v>
       </c>
       <c r="S12">
-        <v>1.327339410546691E-05</v>
+        <v>9.102740130857727E-05</v>
       </c>
       <c r="T12">
-        <v>1.32733941054669E-05</v>
+        <v>9.102740130857724E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.007504</v>
+        <v>7.697976666666666</v>
       </c>
       <c r="H13">
-        <v>18.022512</v>
+        <v>23.09393</v>
       </c>
       <c r="I13">
-        <v>0.07755687582203347</v>
+        <v>0.09871507918910555</v>
       </c>
       <c r="J13">
-        <v>0.07755687582203347</v>
+        <v>0.09871507918910553</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>194.1975953333333</v>
+        <v>37.74401233333333</v>
       </c>
       <c r="N13">
-        <v>582.592786</v>
+        <v>113.232037</v>
       </c>
       <c r="O13">
-        <v>0.9531149475424379</v>
+        <v>0.9981055287696164</v>
       </c>
       <c r="P13">
-        <v>0.9531149475424379</v>
+        <v>0.9981055287696164</v>
       </c>
       <c r="Q13">
-        <v>1166.642830755381</v>
+        <v>290.5525262483789</v>
       </c>
       <c r="R13">
-        <v>10499.78547679843</v>
+        <v>2614.97273623541</v>
       </c>
       <c r="S13">
-        <v>0.0739206176306728</v>
+        <v>0.09852806631157675</v>
       </c>
       <c r="T13">
-        <v>0.0739206176306728</v>
+        <v>0.09852806631157673</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.558577</v>
+        <v>0.391393</v>
       </c>
       <c r="H14">
-        <v>4.675731</v>
+        <v>1.174179</v>
       </c>
       <c r="I14">
-        <v>0.0201212288577881</v>
+        <v>0.005019031969317685</v>
       </c>
       <c r="J14">
-        <v>0.0201212288577881</v>
+        <v>0.005019031969317684</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>9.506851333333332</v>
+        <v>0.02564166666666666</v>
       </c>
       <c r="N14">
-        <v>28.520554</v>
+        <v>0.07692499999999999</v>
       </c>
       <c r="O14">
-        <v>0.04665929098818478</v>
+        <v>0.0006780701807970013</v>
       </c>
       <c r="P14">
-        <v>0.04665929098818478</v>
+        <v>0.0006780701807970013</v>
       </c>
       <c r="Q14">
-        <v>14.81715983055266</v>
+        <v>0.01003596884166667</v>
       </c>
       <c r="R14">
-        <v>133.354438474974</v>
+        <v>0.090323719575</v>
       </c>
       <c r="S14">
-        <v>0.0009388422723153959</v>
+        <v>3.403255914861173E-06</v>
       </c>
       <c r="T14">
-        <v>0.0009388422723153959</v>
+        <v>3.403255914861172E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.558577</v>
+        <v>0.391393</v>
       </c>
       <c r="H15">
-        <v>4.675731</v>
+        <v>1.174179</v>
       </c>
       <c r="I15">
-        <v>0.0201212288577881</v>
+        <v>0.005019031969317685</v>
       </c>
       <c r="J15">
-        <v>0.0201212288577881</v>
+        <v>0.005019031969317684</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1361,28 +1361,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.01112833333333334</v>
+        <v>0.01112833333333333</v>
       </c>
       <c r="N15">
         <v>0.033385</v>
       </c>
       <c r="O15">
-        <v>5.461746744612847E-05</v>
+        <v>0.0002942784918545062</v>
       </c>
       <c r="P15">
-        <v>5.461746744612847E-05</v>
+        <v>0.0002942784918545062</v>
       </c>
       <c r="Q15">
-        <v>0.01734436438166667</v>
+        <v>0.004355551768333334</v>
       </c>
       <c r="R15">
-        <v>0.156099279435</v>
+        <v>0.039199965915</v>
       </c>
       <c r="S15">
-        <v>1.098970562116342E-06</v>
+        <v>1.476993158500361E-06</v>
       </c>
       <c r="T15">
-        <v>1.098970562116342E-06</v>
+        <v>1.476993158500361E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.558577</v>
+        <v>0.391393</v>
       </c>
       <c r="H16">
-        <v>4.675731</v>
+        <v>1.174179</v>
       </c>
       <c r="I16">
-        <v>0.0201212288577881</v>
+        <v>0.005019031969317685</v>
       </c>
       <c r="J16">
-        <v>0.0201212288577881</v>
+        <v>0.005019031969317684</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1429,22 +1429,22 @@
         <v>0.104612</v>
       </c>
       <c r="O16">
-        <v>0.0001711440019312383</v>
+        <v>0.0009221225577320236</v>
       </c>
       <c r="P16">
-        <v>0.0001711440019312383</v>
+        <v>0.0009221225577320235</v>
       </c>
       <c r="Q16">
-        <v>0.05434861904133333</v>
+        <v>0.01364813483866667</v>
       </c>
       <c r="R16">
-        <v>0.489137571372</v>
+        <v>0.122833213548</v>
       </c>
       <c r="S16">
-        <v>3.443627630496175E-06</v>
+        <v>4.62816259688602E-06</v>
       </c>
       <c r="T16">
-        <v>3.443627630496175E-06</v>
+        <v>4.628162596886018E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.558577</v>
+        <v>0.391393</v>
       </c>
       <c r="H17">
-        <v>4.675731</v>
+        <v>1.174179</v>
       </c>
       <c r="I17">
-        <v>0.0201212288577881</v>
+        <v>0.005019031969317685</v>
       </c>
       <c r="J17">
-        <v>0.0201212288577881</v>
+        <v>0.005019031969317684</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>194.1975953333333</v>
+        <v>37.74401233333333</v>
       </c>
       <c r="N17">
-        <v>582.592786</v>
+        <v>113.232037</v>
       </c>
       <c r="O17">
-        <v>0.9531149475424379</v>
+        <v>0.9981055287696164</v>
       </c>
       <c r="P17">
-        <v>0.9531149475424379</v>
+        <v>0.9981055287696164</v>
       </c>
       <c r="Q17">
-        <v>302.6719055418407</v>
+        <v>14.77274221918033</v>
       </c>
       <c r="R17">
-        <v>2724.047149876566</v>
+        <v>132.954679972623</v>
       </c>
       <c r="S17">
-        <v>0.01917784398728009</v>
+        <v>0.005009523557647438</v>
       </c>
       <c r="T17">
-        <v>0.01917784398728009</v>
+        <v>0.005009523557647437</v>
       </c>
     </row>
   </sheetData>
